--- a/metadata/STR-NHANES-2013-2014.xlsx
+++ b/metadata/STR-NHANES-2013-2014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8684F75A-AA97-FE4E-BD75-018A70B96C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F902209-E546-2D48-BB9A-367D70DB5B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-DMQ_H-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>NHANES-2013-2014-HIQ_H</t>
+  </si>
+  <si>
+    <t>NHANES-HIQ</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-HIQ_H-QUESTIONNAIRE</t>
   </si>
 </sst>
 </file>
@@ -1491,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1546,9 +1555,28 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{F6AA2C18-05A3-1640-BB8B-666F16DDB7C4}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2013-2014.xlsx
+++ b/metadata/STR-NHANES-2013-2014.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F902209-E546-2D48-BB9A-367D70DB5B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB095EA-3DB1-784A-BD44-9289F7E6A786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20940" yWindow="-30020" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -130,13 +130,58 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-HIQ_H-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>NHANES-DIQ</t>
+  </si>
+  <si>
+    <t>NHANES-RXQ_RX-T</t>
+  </si>
+  <si>
+    <t>NHANES-RXQ_RX-P</t>
+  </si>
+  <si>
+    <t>NHANES-LAB-RESULTS</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-ROCHE-HITACHI-COBAS-6000-ANALYZER</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-TOSOH-G8-GLYCOHEMOGLOBIN-ANALYZER</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-DIQ_H-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-DSQ_H-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>NHANES-2013-2014-DIQ_H</t>
+  </si>
+  <si>
+    <t>NHANES-2013-2014-RXQ_RX_H-T</t>
+  </si>
+  <si>
+    <t>NHANES-2013-2014-RXQ_RX_H-P</t>
+  </si>
+  <si>
+    <t>NHANES-2013-2014-TCHOL_H</t>
+  </si>
+  <si>
+    <t>NHANES-2013-2014-GLU_H</t>
+  </si>
+  <si>
+    <t>NHANES-2013-2014-GHB_H</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-BECKMAN-COULTER-UNICEL-DXC-800-SYNCHRON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -158,6 +203,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -204,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -218,6 +269,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1500,17 +1555,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
@@ -1538,45 +1593,159 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>25</v>
+      <c r="A2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="D2" s="14"/>
       <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>30</v>
+      <c r="A3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D3" s="14"/>
       <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{F6AA2C18-05A3-1640-BB8B-666F16DDB7C4}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{7B55612F-4636-804C-B36B-089A6B6A70BD}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{4719C39D-5DBF-FA4A-8B7D-220E9F3CBE7F}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{A6DABA8B-B0F4-5E48-8BD4-9B26407B8BED}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{B7C503CD-5BC1-F54E-8A89-B0C4F58E9D4C}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{B766D917-323F-AA47-AB2F-B1CCA11E4556}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{3EB01564-816C-1149-8CD0-6C5EB8EFC3E6}"/>
+    <hyperlink ref="E2" r:id="rId7" xr:uid="{2A6A204E-70A2-5249-965C-F5AF79E8649D}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{B029AFBE-1CB0-D143-9A0B-8B21E3EBF9A2}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2013-2014.xlsx
+++ b/metadata/STR-NHANES-2013-2014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB095EA-3DB1-784A-BD44-9289F7E6A786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F960FE-7B19-5049-845B-3CEC0CE605B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="-30020" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1558,7 +1558,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/metadata/STR-NHANES-2013-2014.xlsx
+++ b/metadata/STR-NHANES-2013-2014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F960FE-7B19-5049-845B-3CEC0CE605B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D74CE34-0450-9342-B14B-663F069CDA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="-30020" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-BECKMAN-COULTER-UNICEL-DXC-800-SYNCHRON</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-BECKMAN-COULTER-ICON-25-HCG-URINE-SERUM-TEST-KIT</t>
+  </si>
+  <si>
+    <t>NHANES-2013-2014-UCPREG_H</t>
   </si>
 </sst>
 </file>
@@ -255,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -273,6 +279,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1555,17 +1562,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
@@ -1733,6 +1740,24 @@
         <v>24</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="15" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1746,6 +1771,7 @@
     <hyperlink ref="E8" r:id="rId6" xr:uid="{3EB01564-816C-1149-8CD0-6C5EB8EFC3E6}"/>
     <hyperlink ref="E2" r:id="rId7" xr:uid="{2A6A204E-70A2-5249-965C-F5AF79E8649D}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{B029AFBE-1CB0-D143-9A0B-8B21E3EBF9A2}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{3D163432-4667-B04C-BB7D-6C57D056B151}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2013-2014.xlsx
+++ b/metadata/STR-NHANES-2013-2014.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D74CE34-0450-9342-B14B-663F069CDA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF0E623-C37F-6E4B-B113-0973E310552B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20940" yWindow="-30020" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="2540" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>NHANES-2013-2014-UCPREG_H</t>
+  </si>
+  <si>
+    <t>NHANES-2013-2014-BPQ_H</t>
+  </si>
+  <si>
+    <t>NHANES-BPQ</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-BPQ_H-QUESTIONNAIRE</t>
   </si>
 </sst>
 </file>
@@ -1562,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1599,15 +1608,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="8" t="s">
@@ -1617,15 +1626,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>27</v>
+    <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="8" t="s">
@@ -1635,15 +1644,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>41</v>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="8" t="s">
@@ -1655,10 +1664,10 @@
     </row>
     <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>39</v>
@@ -1673,13 +1682,13 @@
     </row>
     <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="8" t="s">
@@ -1691,13 +1700,13 @@
     </row>
     <row r="7" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="8" t="s">
@@ -1709,13 +1718,13 @@
     </row>
     <row r="8" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>46</v>
+      <c r="C8" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="8" t="s">
@@ -1727,13 +1736,13 @@
     </row>
     <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="8" t="s">
@@ -1743,15 +1752,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="15" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="8" t="s">
@@ -1761,17 +1770,36 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:6" s="15" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{7B55612F-4636-804C-B36B-089A6B6A70BD}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{4719C39D-5DBF-FA4A-8B7D-220E9F3CBE7F}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{A6DABA8B-B0F4-5E48-8BD4-9B26407B8BED}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{B7C503CD-5BC1-F54E-8A89-B0C4F58E9D4C}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{B766D917-323F-AA47-AB2F-B1CCA11E4556}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{3EB01564-816C-1149-8CD0-6C5EB8EFC3E6}"/>
-    <hyperlink ref="E2" r:id="rId7" xr:uid="{2A6A204E-70A2-5249-965C-F5AF79E8649D}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{B029AFBE-1CB0-D143-9A0B-8B21E3EBF9A2}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{3D163432-4667-B04C-BB7D-6C57D056B151}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{7B55612F-4636-804C-B36B-089A6B6A70BD}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{4719C39D-5DBF-FA4A-8B7D-220E9F3CBE7F}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{A6DABA8B-B0F4-5E48-8BD4-9B26407B8BED}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{B7C503CD-5BC1-F54E-8A89-B0C4F58E9D4C}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{B766D917-323F-AA47-AB2F-B1CCA11E4556}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{3EB01564-816C-1149-8CD0-6C5EB8EFC3E6}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{2A6A204E-70A2-5249-965C-F5AF79E8649D}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{B029AFBE-1CB0-D143-9A0B-8B21E3EBF9A2}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{3D163432-4667-B04C-BB7D-6C57D056B151}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{A0A61CC8-426B-6340-85DC-EDEACD6F857C}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2013-2014.xlsx
+++ b/metadata/STR-NHANES-2013-2014.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansi/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF0E623-C37F-6E4B-B113-0973E310552B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0BD422-08F3-A04F-B818-D84DBED1D1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="2540" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="1540" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-BPQ_H-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>NHANES-BPX</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-INFANTOMETER-STADIOMETER</t>
+  </si>
+  <si>
+    <t>NHANES-BMX</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-STEEL-MEASURING-TAPE</t>
+  </si>
+  <si>
+    <t>NHANES-2013-2014-BPX_H</t>
+  </si>
+  <si>
+    <t>NHANES-2013-2014-BMX_H</t>
   </si>
 </sst>
 </file>
@@ -270,25 +288,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1480,7 +1491,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3"/>
@@ -1571,21 +1582,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1608,183 +1619,219 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="15" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1800,6 +1847,8 @@
     <hyperlink ref="E10" r:id="rId8" xr:uid="{B029AFBE-1CB0-D143-9A0B-8B21E3EBF9A2}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{3D163432-4667-B04C-BB7D-6C57D056B151}"/>
     <hyperlink ref="E2" r:id="rId10" xr:uid="{A0A61CC8-426B-6340-85DC-EDEACD6F857C}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{09A661E6-3775-FF4B-864F-7250A3B85F40}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{A0F4247E-4E68-5B43-816B-15FF82CDA717}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>
@@ -1818,9 +1867,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="11.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="6"/>
+    <col min="1" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1957,9 +2006,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/STR-NHANES-2013-2014.xlsx
+++ b/metadata/STR-NHANES-2013-2014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansi/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0BD422-08F3-A04F-B818-D84DBED1D1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5C1837-1335-544B-9451-D084EC86E231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="1540" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>NHANES-2013-2014-BMX_H</t>
+  </si>
+  <si>
+    <t>NHANES-2013-2014-BIOPRO_H</t>
   </si>
 </sst>
 </file>
@@ -1582,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1799,15 +1802,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="5" t="s">
@@ -1819,19 +1822,37 @@
     </row>
     <row r="13" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1847,8 +1868,9 @@
     <hyperlink ref="E10" r:id="rId8" xr:uid="{B029AFBE-1CB0-D143-9A0B-8B21E3EBF9A2}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{3D163432-4667-B04C-BB7D-6C57D056B151}"/>
     <hyperlink ref="E2" r:id="rId10" xr:uid="{A0A61CC8-426B-6340-85DC-EDEACD6F857C}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{09A661E6-3775-FF4B-864F-7250A3B85F40}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{A0F4247E-4E68-5B43-816B-15FF82CDA717}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{09A661E6-3775-FF4B-864F-7250A3B85F40}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{A0F4247E-4E68-5B43-816B-15FF82CDA717}"/>
+    <hyperlink ref="E12" r:id="rId13" xr:uid="{99342914-F6DE-DE49-805E-7BC5D5C17D5D}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2013-2014.xlsx
+++ b/metadata/STR-NHANES-2013-2014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansi/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5C1837-1335-544B-9451-D084EC86E231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC3C090-1C41-CB48-9272-E2C9A9D98E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="1540" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>NHANES-2013-2014-BIOPRO_H</t>
+  </si>
+  <si>
+    <t>NHANES-2013-2014-TRIGLY_H</t>
   </si>
 </sst>
 </file>
@@ -1585,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1820,15 +1823,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="5" t="s">
@@ -1840,19 +1843,37 @@
     </row>
     <row r="14" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1868,9 +1889,10 @@
     <hyperlink ref="E10" r:id="rId8" xr:uid="{B029AFBE-1CB0-D143-9A0B-8B21E3EBF9A2}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{3D163432-4667-B04C-BB7D-6C57D056B151}"/>
     <hyperlink ref="E2" r:id="rId10" xr:uid="{A0A61CC8-426B-6340-85DC-EDEACD6F857C}"/>
-    <hyperlink ref="E13" r:id="rId11" xr:uid="{09A661E6-3775-FF4B-864F-7250A3B85F40}"/>
-    <hyperlink ref="E14" r:id="rId12" xr:uid="{A0F4247E-4E68-5B43-816B-15FF82CDA717}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{09A661E6-3775-FF4B-864F-7250A3B85F40}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{A0F4247E-4E68-5B43-816B-15FF82CDA717}"/>
     <hyperlink ref="E12" r:id="rId13" xr:uid="{99342914-F6DE-DE49-805E-7BC5D5C17D5D}"/>
+    <hyperlink ref="E13" r:id="rId14" xr:uid="{5FF316BF-7A65-794A-B9E3-7989D38DFDC9}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>
